--- a/BackTest/2020-01-21 BackTest BCD.xlsx
+++ b/BackTest/2020-01-21 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-37830.47862966</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-37878.04082966</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-37983.08182966</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-40031.08172966</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-41181.61522966</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-40947.27492965999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-66776.91062965999</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-61809.52572966</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-61996.22572965999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-61996.22572965999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-61848.24822152999</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-61980.24822152999</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-61973.67231149999</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-65756.63681149999</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-65893.75910222999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-65898.75910222999</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-67234.58380222999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-67234.58380222999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-66552.81330222999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-67654.31630222999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-67652.29930222998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-71125.17770222998</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-70241.78960516998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-70241.78960516998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-70241.78960516998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-75230.34340516997</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-76421.52070516997</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-76420.52070516997</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-76420.52070516997</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-76420.52070516997</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-76251.25250516996</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-76385.46890516997</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-76385.46890516997</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-75903.46890516997</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-76427.86890516996</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-76427.86890516996</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-76548.76890516996</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-76137.30840516996</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-89125.70782414994</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-90837.47942414993</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-90837.47942414993</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-90837.47942414993</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-90837.47942414993</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-89709.36782414994</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-93024.98992414994</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-82141.57652414993</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-82141.57652414993</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-78629.87142414993</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-78629.87142414993</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-78092.55942414992</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-78397.24742414991</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-76312.36482414992</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-86156.04202414992</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-86156.04202414992</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-86505.15242414993</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-86153.88182414992</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-87260.78282414992</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-87163.65512414993</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-87163.65512414993</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-87163.65512414993</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-87160.28192414992</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-87160.28192414992</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-87980.51932414992</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-84827.74772414993</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-87128.94122414992</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-90606.85492056991</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-90606.85492056991</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-90606.85492056991</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-89154.1765205699</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-80842.11872056991</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-73843.83342056991</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-80453.0603205699</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-80485.3829205699</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-80475.6358815299</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-79382.2158815299</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-74998.8922815299</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-75161.6116815299</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-75161.6116815299</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-75239.7081815299</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-76434.4286815299</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-76434.4286815299</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-76434.4286815299</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-75796.6922815299</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-74692.2555815299</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-74692.2555815299</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-77422.66478152989</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-77332.96218152989</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-77832.96218152989</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-78246.27358152989</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-64509.4218815299</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-57338.9717669399</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-57338.9717669399</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-58368.11302737989</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-58514.31282737989</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-60192.85432737989</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-60186.32862987989</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-60315.50172987989</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-58613.96062987989</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-58742.16062987989</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-58742.16062987989</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-61750.44162987989</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-61750.44162987989</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-61750.44162987989</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-61750.44162987989</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-62361.34672987989</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-62361.34672987989</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-57809.54582987989</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-44861.65912987989</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-45529.82082987989</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-42837.43522987988</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-42406.76882987988</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-42401.83742987988</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-42401.83742987988</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-42403.83742987988</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-40999.33652987988</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-40998.53652987988</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-41107.23652987988</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-41986.90328764987</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-44618.86138764987</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-41162.06988764987</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-41032.50818764987</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-42914.98078764987</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-42914.98078764987</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-42766.61228764988</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-41506.22998764988</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-42314.99768764988</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-41615.83538764987</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-41812.09798764987</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-41787.25108764988</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-41220.28599367988</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-41661.40346797988</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-41661.40346797988</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-41687.83466797988</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-41823.25156797987</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-48137.81036797987</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-48137.81036797987</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-54157.54396797987</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-52921.61236797988</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-52921.61236797988</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-56940.51256797988</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-58175.17586797988</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-59021.59396797988</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-59273.54366797988</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-59222.21556797988</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-59642.21556797988</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-59942.21556797988</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-59742.21556797988</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-59820.27276797988</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-59515.27276797988</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-59556.14032954988</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-60136.59002954988</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-61242.82892954988</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-61075.72892954988</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-64121.17772954988</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-64783.07442954987</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-64783.07442954987</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-64783.07442954987</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-64727.54422954987</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-62679.16452954987</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-62679.16452954987</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-62679.16452954987</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-61531.26312954987</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-61435.26312954987</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-65015.26312954987</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-64760.72902954988</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-63868.97452954987</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-63908.97452954987</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-64828.97452954987</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-64828.97452954987</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-65048.39842954987</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-65048.39842954987</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-64905.39842954987</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-64846.44682954987</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-64993.91712954987</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-64833.48932954988</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-65177.38242954988</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-65199.73322954988</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-65199.73322954988</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-65493.43592954988</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-65745.73112954988</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-65712.18152954988</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-65739.91782954989</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-66479.61982954989</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-66479.61982954989</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-66479.61982954989</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-66547.01982954988</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-67305.98752954988</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-67305.98752954988</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-67305.98752954988</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-67305.98752954988</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-67305.98752954988</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-68640.91412954988</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-68553.39533255988</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-68553.39533255988</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-67912.20633255989</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-75869.08433255988</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-75823.88243255988</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-77731.08303255988</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-75957.61543255988</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-75535.97423255988</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-75535.97423255988</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-74571.79933255988</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-73149.68713255988</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-72713.97283255987</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-74335.09283255987</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-74335.09283255987</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-75131.90483255987</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-72436.81403255987</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-72085.28813255987</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-68030.37013255987</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-67609.56803255987</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-67609.56803255987</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-67671.19763255987</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-59260.32705247986</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-59166.33993255987</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-59166.33993255987</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-59135.08183255987</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-65034.74713255987</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-64901.54713255987</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-66358.33653255987</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-66333.74543255987</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-70055.79583255987</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-69966.14553255988</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-70036.17203255989</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-69351.93763255989</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-69986.33373255988</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-70262.63373255989</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-70262.63373255989</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-70716.89683255988</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-70716.89683255988</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-70716.89683255988</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-70891.11583255988</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-70891.11583255988</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-70891.11583255988</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-70891.11583255988</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-72456.15273255989</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-74354.04693255988</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-74250.74023255988</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-74250.74023255988</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-74250.74023255988</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-72810.74023255988</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-72810.74023255988</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-71623.94023255988</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-72428.94013255987</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-72428.94013255987</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-67601.17743255987</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-67833.84663255987</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-87771.45823255986</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-87771.45823255986</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-87770.45823255986</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-87850.45823255986</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-88141.15043255987</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-88141.15043255987</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-85433.15043255987</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-85433.15043255987</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-85030.15043255987</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-84705.62323255987</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-84705.62323255987</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-84705.62323255987</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-84705.62323255987</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-82143.20975837987</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-82143.20975837987</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-83892.21365837987</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-84424.20465837987</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-83483.50245837987</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-83532.07385837987</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-83532.07385837987</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-83715.07375837986</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-83715.07375837986</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-83639.98295837986</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-82176.86935837986</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-82176.86935837986</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-82588.43547808986</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-82588.43547808986</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-82563.27667808985</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-82563.27667808985</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-82563.27667808985</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-83400.74537808985</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-82745.22247808985</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-82741.66207808985</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-82741.66207808985</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-83531.66197808985</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-83531.66197808985</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-84148.48657808985</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-86264.15137808985</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-86264.15137808985</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-86264.15137808985</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-86780.63437808985</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-88149.75577808985</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-91645.69847808985</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-91645.69847808985</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-94390.08477808985</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-94299.72367808985</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-97199.72367808985</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-97199.72367808985</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-97199.72367808985</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-97199.72367808985</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-97130.93347808985</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-97130.93347808985</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-98803.93477808985</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-98690.43697808986</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-98690.43697808986</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-98178.94907808986</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-99804.79058668985</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-99804.04058668985</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-101243.2692866899</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -21043,11 +21043,17 @@
         <v>-217443.3348200698</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>614</v>
+      </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21076,11 +21082,17 @@
         <v>-218569.2348200698</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>620</v>
+      </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21109,11 +21121,17 @@
         <v>-219406.5681200698</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>619.1</v>
+      </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +21160,17 @@
         <v>-219406.5681200698</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>617</v>
+      </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21175,11 +21199,17 @@
         <v>-219406.5681200698</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>617</v>
+      </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21208,15 +21238,17 @@
         <v>-219406.5681200698</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>617</v>
       </c>
-      <c r="J631" t="n">
-        <v>617</v>
-      </c>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21245,17 +21277,15 @@
         <v>-219406.5681200698</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>617</v>
       </c>
-      <c r="J632" t="n">
-        <v>617</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L632" t="n">
@@ -21286,17 +21316,15 @@
         <v>-219406.5681200698</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>617</v>
       </c>
-      <c r="J633" t="n">
-        <v>617</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L633" t="n">
@@ -21327,14 +21355,12 @@
         <v>-238042.4275200698</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>617</v>
       </c>
-      <c r="J634" t="n">
-        <v>617</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21368,14 +21394,12 @@
         <v>-238042.4275200698</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>613.1</v>
       </c>
-      <c r="J635" t="n">
-        <v>617</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21409,14 +21433,12 @@
         <v>-238042.4275200698</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
         <v>613.1</v>
       </c>
-      <c r="J636" t="n">
-        <v>617</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21450,14 +21472,10 @@
         <v>-236081.4275200698</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
-      </c>
-      <c r="I637" t="n">
-        <v>613.1</v>
-      </c>
-      <c r="J637" t="n">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21494,9 +21512,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>617</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21533,9 +21549,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>617</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21569,12 +21583,12 @@
         <v>-223545.5545215398</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>620.4</v>
+      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21608,12 +21622,12 @@
         <v>-214210.3752200698</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>626.4</v>
+      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21647,12 +21661,12 @@
         <v>-210746.9403200698</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>629.8</v>
+      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21686,12 +21700,12 @@
         <v>-210746.9403200698</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>632.6</v>
+      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21725,12 +21739,12 @@
         <v>-223732.5479185998</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>632.6</v>
+      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21764,12 +21778,12 @@
         <v>-213798.7791171298</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>629</v>
+      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21806,9 +21820,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>617</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21845,9 +21857,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>617</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21884,9 +21894,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>617</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21923,9 +21931,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>617</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21962,9 +21968,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>617</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22001,9 +22005,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>617</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22040,9 +22042,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>617</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22079,9 +22079,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>617</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22118,9 +22116,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>617</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22157,9 +22153,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>617</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22196,9 +22190,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>617</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22235,9 +22227,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>617</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22274,9 +22264,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>617</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22313,9 +22301,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>617</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22352,9 +22338,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>617</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22391,9 +22375,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>617</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22430,9 +22412,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>617</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22469,9 +22449,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>617</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22508,9 +22486,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>617</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22547,9 +22523,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>617</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22586,9 +22560,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>617</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22625,9 +22597,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>617</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22664,9 +22634,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>617</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22703,9 +22671,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>617</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22739,14 +22705,10 @@
         <v>-203514.7425555898</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
-      </c>
-      <c r="I670" t="n">
-        <v>638.1</v>
-      </c>
-      <c r="J670" t="n">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22780,14 +22742,10 @@
         <v>-202996.1425555898</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
-      </c>
-      <c r="I671" t="n">
-        <v>637.1</v>
-      </c>
-      <c r="J671" t="n">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22824,9 +22782,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>617</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22863,9 +22819,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>617</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22902,9 +22856,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>617</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22941,9 +22893,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>617</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22980,9 +22930,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>617</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23019,9 +22967,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>617</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23058,9 +23004,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>617</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23097,9 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>617</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23136,9 +23078,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>617</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23175,9 +23115,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>617</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23214,9 +23152,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>617</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23253,9 +23189,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>617</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23292,9 +23226,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>617</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23331,9 +23263,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>617</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23370,9 +23300,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>617</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23384,6 +23312,6 @@
       <c r="M686" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest BCD.xlsx
+++ b/BackTest/2020-01-21 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,7 +880,7 @@
         <v>-37983.08182966</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-41181.61522966</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-40947.27492965999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-66776.91062965999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-61809.52572966</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-61996.22572965999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-61996.22572965999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-61980.24822152999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-61973.67231149999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-65756.63681149999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-65893.75910222999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-65898.75910222999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-67234.58380222999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-67234.58380222999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-66552.81330222999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-67654.31630222999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-67652.29930222998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-71125.17770222998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-70241.78960516998</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-70241.78960516998</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-70241.78960516998</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-75230.34340516997</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-76421.52070516997</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-76420.52070516997</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-76420.52070516997</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-76420.52070516997</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-76251.25250516996</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-76385.46890516997</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-76385.46890516997</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-75903.46890516997</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-76427.86890516996</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-76427.86890516996</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-76548.76890516996</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-76137.30840516996</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-78397.24742414991</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-76312.36482414992</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-86156.04202414992</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-86156.04202414992</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-86505.15242414993</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-86153.88182414992</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-87260.78282414992</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-87163.65512414993</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-87980.51932414992</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-84827.74772414993</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-87128.94122414992</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-90606.85492056991</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-90606.85492056991</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-90606.85492056991</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-89154.1765205699</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-80842.11872056991</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-73843.83342056991</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-80453.0603205699</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-80485.3829205699</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-80475.6358815299</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-79382.2158815299</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-74998.8922815299</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-75161.6116815299</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-75161.6116815299</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-75239.7081815299</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-76434.4286815299</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-76434.4286815299</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-76434.4286815299</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-75796.6922815299</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-74692.2555815299</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-74692.2555815299</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-77422.66478152989</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-77332.96218152989</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-77832.96218152989</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-78246.27358152989</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-64509.4218815299</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-57338.9717669399</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-57338.9717669399</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-58368.11302737989</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-58514.31282737989</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-60192.85432737989</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-60186.32862987989</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-60315.50172987989</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-58613.96062987989</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-58742.16062987989</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-58742.16062987989</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-61750.44162987989</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-61750.44162987989</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-61750.44162987989</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-61750.44162987989</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-62361.34672987989</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-62361.34672987989</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-57809.54582987989</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-44861.65912987989</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-45529.82082987989</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-42837.43522987988</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-42406.76882987988</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-42401.83742987988</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-42401.83742987988</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-42403.83742987988</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-40999.33652987988</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-40998.53652987988</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-41107.23652987988</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-41986.90328764987</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-44618.86138764987</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-41162.06988764987</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-41032.50818764987</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-42914.98078764987</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-42914.98078764987</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-42766.61228764988</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-41506.22998764988</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-42314.99768764988</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-41615.83538764987</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-41812.09798764987</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-41787.25108764988</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-41220.28599367988</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-41661.40346797988</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-41661.40346797988</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-41687.83466797988</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-41823.25156797987</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-48137.81036797987</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-48137.81036797987</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-54157.54396797987</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-52921.61236797988</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-52921.61236797988</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-56940.51256797988</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-58175.17586797988</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-59021.59396797988</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-59273.54366797988</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-59222.21556797988</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-59642.21556797988</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-59942.21556797988</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-59742.21556797988</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-59820.27276797988</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-59515.27276797988</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-59556.14032954988</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-60136.59002954988</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-61242.82892954988</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-61075.72892954988</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-64121.17772954988</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-64783.07442954987</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-64783.07442954987</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-64783.07442954987</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-64727.54422954987</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-62679.16452954987</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-62679.16452954987</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-62679.16452954987</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-61531.26312954987</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-61435.26312954987</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-65015.26312954987</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-64760.72902954988</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-63868.97452954987</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-63908.97452954987</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-64828.97452954987</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-64828.97452954987</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-65048.39842954987</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-65048.39842954987</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-64905.39842954987</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-64846.44682954987</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-64993.91712954987</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-64833.48932954988</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-65177.38242954988</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-65199.73322954988</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-65199.73322954988</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-65493.43592954988</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-65745.73112954988</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-65712.18152954988</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-65739.91782954989</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-66479.61982954989</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-66479.61982954989</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-66479.61982954989</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-66547.01982954988</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-67305.98752954988</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-67305.98752954988</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-67305.98752954988</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-67305.98752954988</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-67305.98752954988</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-68640.91412954988</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-68553.39533255988</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-68553.39533255988</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-67912.20633255989</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-75869.08433255988</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-75823.88243255988</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-77731.08303255988</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-75957.61543255988</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-75535.97423255988</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-75535.97423255988</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-74571.79933255988</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-73149.68713255988</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-72713.97283255987</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-74335.09283255987</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-74335.09283255987</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-75131.90483255987</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-72436.81403255987</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-72085.28813255987</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-68030.37013255987</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-67609.56803255987</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-67609.56803255987</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-67671.19763255987</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-59260.32705247986</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-59166.33993255987</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-59166.33993255987</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-59135.08183255987</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-65034.74713255987</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-64901.54713255987</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-66358.33653255987</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-66333.74543255987</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-70055.79583255987</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-69966.14553255988</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-70036.17203255989</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-69351.93763255989</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-69986.33373255988</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-70262.63373255989</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-70262.63373255989</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-70716.89683255988</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-70716.89683255988</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-70716.89683255988</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-70891.11583255988</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-70891.11583255988</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-70891.11583255988</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-70891.11583255988</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-72456.15273255989</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-74354.04693255988</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-74250.74023255988</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-74250.74023255988</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-74250.74023255988</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-72810.74023255988</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-72810.74023255988</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-71623.94023255988</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-72428.94013255987</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-72428.94013255987</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-67601.17743255987</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-67833.84663255987</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-87771.45823255986</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-87771.45823255986</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-87770.45823255986</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-87850.45823255986</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-88141.15043255987</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-88141.15043255987</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-85433.15043255987</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-85433.15043255987</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-85030.15043255987</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-84705.62323255987</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-84705.62323255987</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-84705.62323255987</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-84705.62323255987</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-82143.20975837987</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-82143.20975837987</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-83892.21365837987</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-84424.20465837987</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-83483.50245837987</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-83532.07385837987</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-83532.07385837987</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-83715.07375837986</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-83715.07375837986</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-83639.98295837986</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-82176.86935837986</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-82176.86935837986</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-82588.43547808986</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-82588.43547808986</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-82563.27667808985</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-82563.27667808985</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-82563.27667808985</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-83400.74537808985</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-82745.22247808985</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-82741.66207808985</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-82741.66207808985</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-83531.66197808985</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-83531.66197808985</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-84148.48657808985</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-86264.15137808985</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-86264.15137808985</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-86264.15137808985</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-86780.63437808985</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-88149.75577808985</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-91645.69847808985</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-91645.69847808985</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-94390.08477808985</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-94299.72367808985</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-97199.72367808985</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-97199.72367808985</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-97199.72367808985</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-97199.72367808985</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-97130.93347808985</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-97130.93347808985</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-98803.93477808985</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-98690.43697808986</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-98690.43697808986</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-98178.94907808986</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-99804.79058668985</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-99804.04058668985</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-101243.2692866899</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -21121,11 +21121,9 @@
         <v>-219406.5681200698</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>619.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21583,11 +21581,9 @@
         <v>-223545.5545215398</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>620.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
@@ -21622,11 +21618,9 @@
         <v>-214210.3752200698</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>626.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -21661,11 +21655,9 @@
         <v>-210746.9403200698</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>629.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -21700,11 +21692,9 @@
         <v>-210746.9403200698</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>632.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -21739,11 +21729,9 @@
         <v>-223732.5479185998</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>632.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -21778,11 +21766,9 @@
         <v>-213798.7791171298</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -22779,18 +22765,16 @@
         <v>-202996.1425555898</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L672" t="n">
-        <v>1</v>
-      </c>
+      <c r="L672" t="inlineStr"/>
       <c r="M672" t="inlineStr"/>
     </row>
     <row r="673">
@@ -22816,15 +22800,11 @@
         <v>-202435.3651555898</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22853,15 +22833,11 @@
         <v>-204079.4926601198</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22894,11 +22870,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22931,11 +22903,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22968,11 +22936,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23001,15 +22965,11 @@
         <v>-192079.4926601198</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23038,15 +22998,11 @@
         <v>-193619.6173601198</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23075,15 +23031,11 @@
         <v>-193459.6173601198</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23112,15 +23064,11 @@
         <v>-193458.6173601198</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23149,15 +23097,11 @@
         <v>-188440.4479601198</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23186,15 +23130,11 @@
         <v>-198809.8807601198</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23223,15 +23163,11 @@
         <v>-197202.8333234798</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23260,15 +23196,11 @@
         <v>-197284.8333234798</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23297,21 +23229,17 @@
         <v>-201662.1586234798</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
       <c r="M686" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest BCD.xlsx
+++ b/BackTest/2020-01-21 BackTest BCD.xlsx
@@ -616,7 +616,7 @@
         <v>-37830.47862966</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-37830.47862966</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-38069.75972966</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-37446.75972966</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-37878.04082966</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-37878.04082966</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-37983.08182966</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-37983.08182966</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-40031.08172966</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-41181.61522966</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-40947.27492965999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-61809.52572966</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-65756.63681149999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-86284.85852414994</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-82141.57652414993</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-78749.87142414993</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-78397.24742414991</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-76312.36482414992</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-74297.62772414992</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-83031.66572414992</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-86156.04202414992</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-87290.59002414992</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-80842.11872056991</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-80842.11872056991</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-74040.66832056991</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-74091.64042056991</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-74091.64042056991</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-74091.64042056991</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-74281.4626205699</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-73843.83342056991</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-80453.0603205699</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-80485.3829205699</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-80475.6358815299</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-79382.2158815299</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-74998.8922815299</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-75161.6116815299</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-75161.6116815299</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-75239.7081815299</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-76434.4286815299</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-76434.4286815299</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-76434.4286815299</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-75796.6922815299</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-74692.2555815299</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-74692.2555815299</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-77422.66478152989</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-77332.96218152989</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-77832.96218152989</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-78246.27358152989</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-64509.4218815299</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-62081.07778152989</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-54931.07778152989</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-57338.9717669399</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-57338.9717669399</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-57662.20836693989</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-59207.73206693989</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-59207.73206693989</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-59207.73206693989</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-59207.73206693989</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-58368.11302737989</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-58514.31282737989</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-59063.51902737989</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-60192.85432737989</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-60186.32862987989</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-60315.50172987989</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-58613.96062987989</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-58742.16062987989</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-58742.16062987989</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-61750.44162987989</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-61750.44162987989</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-45529.82082987989</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-42401.83742987988</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-42401.83742987988</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-42403.83742987988</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-40999.33652987988</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-40998.53652987988</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-41107.23652987988</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-41986.90328764987</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-42218.63778764987</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-44618.86138764987</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-41162.06988764987</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-41032.50818764987</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-42914.98078764987</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-42914.98078764987</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-42766.61228764988</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-41506.22998764988</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-42314.99768764988</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-41615.83538764987</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-41812.09798764987</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-41787.25108764988</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-41220.28599367988</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-41661.40346797988</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-41661.40346797988</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-41687.83466797988</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-41823.25156797987</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-41821.77446310988</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-48137.81036797987</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-48137.81036797987</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-54157.54396797987</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-56940.51256797988</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-59166.33993255987</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-66358.33653255987</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-66333.74543255987</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-67824.53663255987</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-70036.17203255989</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-72428.94013255987</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-67833.84663255987</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-67044.80033255987</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-83892.21365837987</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -21043,288 +21043,270 @@
         <v>-217443.3348200698</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="n">
+        <v>1</v>
+      </c>
+      <c r="M626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>619.9</v>
+      </c>
+      <c r="C627" t="n">
+        <v>619.1</v>
+      </c>
+      <c r="D627" t="n">
+        <v>619.9</v>
+      </c>
+      <c r="E627" t="n">
+        <v>619.1</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1125.9</v>
+      </c>
+      <c r="G627" t="n">
+        <v>-218569.2348200698</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="n">
+        <v>1</v>
+      </c>
+      <c r="M627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>618.1</v>
+      </c>
+      <c r="C628" t="n">
+        <v>617</v>
+      </c>
+      <c r="D628" t="n">
+        <v>618.1</v>
+      </c>
+      <c r="E628" t="n">
+        <v>617</v>
+      </c>
+      <c r="F628" t="n">
+        <v>837.3333</v>
+      </c>
+      <c r="G628" t="n">
+        <v>-219406.5681200698</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="n">
+        <v>1</v>
+      </c>
+      <c r="M628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>617</v>
+      </c>
+      <c r="C629" t="n">
+        <v>617</v>
+      </c>
+      <c r="D629" t="n">
+        <v>617</v>
+      </c>
+      <c r="E629" t="n">
+        <v>617</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1063.3328</v>
+      </c>
+      <c r="G629" t="n">
+        <v>-219406.5681200698</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="n">
+        <v>1</v>
+      </c>
+      <c r="M629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>617</v>
+      </c>
+      <c r="C630" t="n">
+        <v>617</v>
+      </c>
+      <c r="D630" t="n">
+        <v>617</v>
+      </c>
+      <c r="E630" t="n">
+        <v>617</v>
+      </c>
+      <c r="F630" t="n">
+        <v>177.0911</v>
+      </c>
+      <c r="G630" t="n">
+        <v>-219406.5681200698</v>
+      </c>
+      <c r="H630" t="n">
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>617</v>
+      </c>
+      <c r="J630" t="n">
+        <v>617</v>
+      </c>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="n">
+        <v>1</v>
+      </c>
+      <c r="M630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>617</v>
+      </c>
+      <c r="C631" t="n">
+        <v>617</v>
+      </c>
+      <c r="D631" t="n">
+        <v>617</v>
+      </c>
+      <c r="E631" t="n">
+        <v>617</v>
+      </c>
+      <c r="F631" t="n">
+        <v>5305.7727</v>
+      </c>
+      <c r="G631" t="n">
+        <v>-219406.5681200698</v>
+      </c>
+      <c r="H631" t="n">
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>617</v>
+      </c>
+      <c r="J631" t="n">
+        <v>617</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L631" t="n">
+        <v>1</v>
+      </c>
+      <c r="M631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>617</v>
+      </c>
+      <c r="C632" t="n">
+        <v>617</v>
+      </c>
+      <c r="D632" t="n">
+        <v>617</v>
+      </c>
+      <c r="E632" t="n">
+        <v>617</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1725.93693322</v>
+      </c>
+      <c r="G632" t="n">
+        <v>-219406.5681200698</v>
+      </c>
+      <c r="H632" t="n">
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>617</v>
+      </c>
+      <c r="J632" t="n">
+        <v>617</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L632" t="n">
+        <v>1</v>
+      </c>
+      <c r="M632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>616.7</v>
+      </c>
+      <c r="C633" t="n">
+        <v>617</v>
+      </c>
+      <c r="D633" t="n">
+        <v>617</v>
+      </c>
+      <c r="E633" t="n">
+        <v>616.7</v>
+      </c>
+      <c r="F633" t="n">
+        <v>540.0410000000001</v>
+      </c>
+      <c r="G633" t="n">
+        <v>-219406.5681200698</v>
+      </c>
+      <c r="H633" t="n">
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>617</v>
+      </c>
+      <c r="J633" t="n">
+        <v>617</v>
+      </c>
+      <c r="K633" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L626" t="n">
-        <v>1</v>
-      </c>
-      <c r="M626" t="inlineStr"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="B627" t="n">
-        <v>619.9</v>
-      </c>
-      <c r="C627" t="n">
-        <v>619.1</v>
-      </c>
-      <c r="D627" t="n">
-        <v>619.9</v>
-      </c>
-      <c r="E627" t="n">
-        <v>619.1</v>
-      </c>
-      <c r="F627" t="n">
-        <v>1125.9</v>
-      </c>
-      <c r="G627" t="n">
-        <v>-218569.2348200698</v>
-      </c>
-      <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>620</v>
-      </c>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L627" t="n">
-        <v>1</v>
-      </c>
-      <c r="M627" t="inlineStr"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B628" t="n">
-        <v>618.1</v>
-      </c>
-      <c r="C628" t="n">
-        <v>617</v>
-      </c>
-      <c r="D628" t="n">
-        <v>618.1</v>
-      </c>
-      <c r="E628" t="n">
-        <v>617</v>
-      </c>
-      <c r="F628" t="n">
-        <v>837.3333</v>
-      </c>
-      <c r="G628" t="n">
-        <v>-219406.5681200698</v>
-      </c>
-      <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L628" t="n">
-        <v>1</v>
-      </c>
-      <c r="M628" t="inlineStr"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="B629" t="n">
-        <v>617</v>
-      </c>
-      <c r="C629" t="n">
-        <v>617</v>
-      </c>
-      <c r="D629" t="n">
-        <v>617</v>
-      </c>
-      <c r="E629" t="n">
-        <v>617</v>
-      </c>
-      <c r="F629" t="n">
-        <v>1063.3328</v>
-      </c>
-      <c r="G629" t="n">
-        <v>-219406.5681200698</v>
-      </c>
-      <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>617</v>
-      </c>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L629" t="n">
-        <v>1</v>
-      </c>
-      <c r="M629" t="inlineStr"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>628</v>
-      </c>
-      <c r="B630" t="n">
-        <v>617</v>
-      </c>
-      <c r="C630" t="n">
-        <v>617</v>
-      </c>
-      <c r="D630" t="n">
-        <v>617</v>
-      </c>
-      <c r="E630" t="n">
-        <v>617</v>
-      </c>
-      <c r="F630" t="n">
-        <v>177.0911</v>
-      </c>
-      <c r="G630" t="n">
-        <v>-219406.5681200698</v>
-      </c>
-      <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>617</v>
-      </c>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L630" t="n">
-        <v>1</v>
-      </c>
-      <c r="M630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="B631" t="n">
-        <v>617</v>
-      </c>
-      <c r="C631" t="n">
-        <v>617</v>
-      </c>
-      <c r="D631" t="n">
-        <v>617</v>
-      </c>
-      <c r="E631" t="n">
-        <v>617</v>
-      </c>
-      <c r="F631" t="n">
-        <v>5305.7727</v>
-      </c>
-      <c r="G631" t="n">
-        <v>-219406.5681200698</v>
-      </c>
-      <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>617</v>
-      </c>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L631" t="n">
-        <v>1</v>
-      </c>
-      <c r="M631" t="inlineStr"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B632" t="n">
-        <v>617</v>
-      </c>
-      <c r="C632" t="n">
-        <v>617</v>
-      </c>
-      <c r="D632" t="n">
-        <v>617</v>
-      </c>
-      <c r="E632" t="n">
-        <v>617</v>
-      </c>
-      <c r="F632" t="n">
-        <v>1725.93693322</v>
-      </c>
-      <c r="G632" t="n">
-        <v>-219406.5681200698</v>
-      </c>
-      <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>617</v>
-      </c>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L632" t="n">
-        <v>1</v>
-      </c>
-      <c r="M632" t="inlineStr"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="n">
-        <v>616.7</v>
-      </c>
-      <c r="C633" t="n">
-        <v>617</v>
-      </c>
-      <c r="D633" t="n">
-        <v>617</v>
-      </c>
-      <c r="E633" t="n">
-        <v>616.7</v>
-      </c>
-      <c r="F633" t="n">
-        <v>540.0410000000001</v>
-      </c>
-      <c r="G633" t="n">
-        <v>-219406.5681200698</v>
-      </c>
-      <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>617</v>
-      </c>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21358,7 +21340,9 @@
       <c r="I634" t="n">
         <v>617</v>
       </c>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>617</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21397,7 +21381,9 @@
       <c r="I635" t="n">
         <v>613.1</v>
       </c>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>617</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21431,12 +21417,12 @@
         <v>-238042.4275200698</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>613.1</v>
-      </c>
-      <c r="J636" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>617</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21473,7 +21459,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>617</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21510,7 +21498,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>617</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21547,7 +21537,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>617</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21584,7 +21576,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>617</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21621,7 +21615,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>617</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21658,7 +21654,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>617</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21695,7 +21693,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>617</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21732,7 +21732,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>617</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21769,7 +21771,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>617</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21806,7 +21810,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>617</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21843,7 +21849,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>617</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21880,7 +21888,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>617</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21917,7 +21927,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>617</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21954,7 +21966,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>617</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21991,7 +22005,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>617</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22028,7 +22044,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>617</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22065,7 +22083,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>617</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22102,7 +22122,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>617</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22139,7 +22161,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>617</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22176,7 +22200,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>617</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22213,7 +22239,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>617</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22250,7 +22278,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>617</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22287,7 +22317,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>617</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22324,7 +22356,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>617</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22361,7 +22395,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>617</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22398,7 +22434,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>617</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22435,7 +22473,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>617</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22472,7 +22512,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>617</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22509,7 +22551,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>617</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22546,7 +22590,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>617</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22583,7 +22629,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>617</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22620,7 +22668,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>617</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22657,7 +22707,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>617</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22694,7 +22746,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>617</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22731,7 +22785,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>617</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22765,16 +22821,20 @@
         <v>-202996.1425555898</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>617</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="n">
+        <v>1</v>
+      </c>
       <c r="M672" t="inlineStr"/>
     </row>
     <row r="673">
@@ -22800,11 +22860,17 @@
         <v>-202435.3651555898</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>617</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22833,11 +22899,17 @@
         <v>-204079.4926601198</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>617</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22869,8 +22941,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>617</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22902,8 +22980,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>617</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22935,8 +23019,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>617</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22965,11 +23055,17 @@
         <v>-192079.4926601198</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>617</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22998,11 +23094,17 @@
         <v>-193619.6173601198</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>617</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23031,11 +23133,17 @@
         <v>-193459.6173601198</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>617</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23064,11 +23172,17 @@
         <v>-193458.6173601198</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>617</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23097,11 +23211,17 @@
         <v>-188440.4479601198</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>617</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23130,11 +23250,17 @@
         <v>-198809.8807601198</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>617</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23163,11 +23289,17 @@
         <v>-197202.8333234798</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>617</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23196,11 +23328,17 @@
         <v>-197284.8333234798</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>617</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23229,11 +23367,17 @@
         <v>-201662.1586234798</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>617</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
